--- a/doc/画面遷移図_チーム源田.xlsx
+++ b/doc/画面遷移図_チーム源田.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEDA6A3-4B4F-44D3-960C-D66C1BC2CED6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4404C0BF-12D7-432A-A445-33DCC3EEBDFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1378,6 +1378,70 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C51C372-B047-42DE-8A3A-ADA2DE1660EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6223000" y="1415143"/>
+          <a:ext cx="6912429" cy="3302000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2051,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/画面遷移図_チーム源田.xlsx
+++ b/doc/画面遷移図_チーム源田.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4404C0BF-12D7-432A-A445-33DCC3EEBDFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61200A6F-EE71-4D34-8CB4-DCD3041EE59F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,15 +252,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>218622</xdr:colOff>
+      <xdr:colOff>227693</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>78922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>273052</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>154214</xdr:rowOff>
+      <xdr:colOff>282123</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -275,7 +275,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="218622" y="1802493"/>
+          <a:off x="227693" y="1811565"/>
           <a:ext cx="12255501" cy="4819650"/>
           <a:chOff x="218622" y="1802493"/>
           <a:chExt cx="12255501" cy="4819650"/>
@@ -313,8 +313,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="545193" y="2332265"/>
-              <a:ext cx="2443843" cy="784679"/>
+              <a:off x="545193" y="2146763"/>
+              <a:ext cx="2443843" cy="970182"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -345,7 +345,39 @@
               <a:pPr lvl="0" algn="ctr"/>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>登録完了画面</a:t>
+                <a:t>・登録完了画面</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>・決定した</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>ID</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>の表示</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>・再設定した</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>PW</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>の表示</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             </a:p>
@@ -364,10 +396,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="794656" y="2056493"/>
-              <a:ext cx="12006038" cy="4656365"/>
-              <a:chOff x="-1899559" y="1575707"/>
-              <a:chExt cx="12006038" cy="4656365"/>
+              <a:off x="1311728" y="2056493"/>
+              <a:ext cx="11488966" cy="4656365"/>
+              <a:chOff x="-1382487" y="1575707"/>
+              <a:chExt cx="11488966" cy="4656365"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -661,10 +693,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="-1899559" y="1575707"/>
-                <a:ext cx="5459189" cy="4656365"/>
-                <a:chOff x="-1899559" y="1575707"/>
-                <a:chExt cx="5459189" cy="4656365"/>
+                <a:off x="-1382487" y="1575707"/>
+                <a:ext cx="4942117" cy="4656365"/>
+                <a:chOff x="-1382487" y="1575707"/>
+                <a:chExt cx="4942117" cy="4656365"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:grpSp>
@@ -1026,30 +1058,6 @@
                       </a:rPr>
                       <a:t>再設定</a:t>
                     </a:r>
-                    <a:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <a:t>orID</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <a:t>見せる</a:t>
-                    </a:r>
                     <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
                   </a:p>
                 </xdr:txBody>
@@ -1109,7 +1117,7 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="-1899559" y="3157765"/>
+                  <a:off x="-1382487" y="3149000"/>
                   <a:ext cx="2456542" cy="579664"/>
                 </a:xfrm>
                 <a:prstGeom prst="roundRect">
@@ -1171,8 +1179,8 @@
               </xdr:nvCxnSpPr>
               <xdr:spPr>
                 <a:xfrm flipH="1">
-                  <a:off x="-671288" y="2362200"/>
-                  <a:ext cx="2995388" cy="795565"/>
+                  <a:off x="-154216" y="2362200"/>
+                  <a:ext cx="2478316" cy="786800"/>
                 </a:xfrm>
                 <a:prstGeom prst="straightConnector1">
                   <a:avLst/>
@@ -1213,8 +1221,8 @@
               </xdr:nvCxnSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="-671288" y="3737429"/>
-                  <a:ext cx="1774376" cy="1132568"/>
+                  <a:off x="-154216" y="3728664"/>
+                  <a:ext cx="1257304" cy="1141333"/>
                 </a:xfrm>
                 <a:prstGeom prst="straightConnector1">
                   <a:avLst/>
@@ -1254,9 +1262,9 @@
             </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="2989036" y="2703286"/>
-              <a:ext cx="757464" cy="21319"/>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="2989036" y="2631854"/>
+              <a:ext cx="757464" cy="71433"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
               <a:avLst/>
@@ -1440,6 +1448,118 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508001</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>484419</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="コネクタ: カギ線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF53D06-A59A-4B29-89A3-DB5B6FFB27D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="508001" y="2966357"/>
+          <a:ext cx="2969989" cy="3361576"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>743857</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>486232</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>59734</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="コネクタ: カギ線 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2169DB-E08D-452A-B4C8-49B9E909C906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="743857" y="2930072"/>
+          <a:ext cx="2735946" cy="2291305"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100066"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2115,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
